--- a/medicine/Sexualité et sexologie/Peepoodo_and_the_Super_Fuck_Friends/Peepoodo_and_the_Super_Fuck_Friends.xlsx
+++ b/medicine/Sexualité et sexologie/Peepoodo_and_the_Super_Fuck_Friends/Peepoodo_and_the_Super_Fuck_Friends.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peepoodo and the Super Fuck Friends est une série d'animation pour adultes  française, créée par Balak et co-écrite par Brice Chevillard, Nicolas Athané et Balak. Le projet de cette série est de faire un programme d'éducation sexuelle pour les plus de 18 ans.
-Elle est diffusée depuis le 16 juillet 2018 sur Blackpills[1]. C'est la deuxième série produite par le studio d'animation Bobbypills[2]. 
-Après une campagne de financement participatif sur Kickstarter, une deuxième saison est actuellement en diffusion (début le 7 avril 2021)[3]. Cette saison 2 ne devrait pas compter le nombre d'épisodes initialement prévus (8 épisodes à priori produits pour les 10 annoncés), car le Kickstarter n'a pas tout à fait atteint le financement pour une saison complète. La saison deux comporte 8 épisodes sur 10 souhaités initialement. La saison 2 est nommée : « Peepoodo and the super space friends ».
+Elle est diffusée depuis le 16 juillet 2018 sur Blackpills. C'est la deuxième série produite par le studio d'animation Bobbypills. 
+Après une campagne de financement participatif sur Kickstarter, une deuxième saison est actuellement en diffusion (début le 7 avril 2021). Cette saison 2 ne devrait pas compter le nombre d'épisodes initialement prévus (8 épisodes à priori produits pour les 10 annoncés), car le Kickstarter n'a pas tout à fait atteint le financement pour une saison complète. La saison deux comporte 8 épisodes sur 10 souhaités initialement. La saison 2 est nommée : « Peepoodo and the super space friends ».
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On suit les aventures de Peepoodo et ses amis pendant de courts épisodes, durant lesquels des mésaventures liées à la sexualité leur arrivent. L'univers se situe dans une forêt fictive : la Forêt Jolie, avec pour habitants, des personnages animaux anthropomorphes. Le style général est très enfantin malgré la thématique. 
 La Saison 2, quant à elle, se déroule dans l'espace à la suite de la destruction de la planète d'origine à cause du pénis de Peepoodo lors de sa transformation temporaire en Peepoodur. Peepoodo et ses amis traversant le cosmos à l'aide d'un vaisseau spatial dont la forme rappelle celui du clitoris.
@@ -547,15 +561,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages principaux
-Peepoodo : un hamster rose, personnage principal. Est sexuellement mature bien qu'étant d'apparence enfantine.
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Peepoodo : un hamster rose, personnage principal. Est sexuellement mature bien qu'étant d'apparence enfantine.
 Dr. Monique Lachatte : médecin, personnage récurrent de la série pour expliquer la sexualité. Lors de  la saison 2, on apprend qu'elle a tourné dans des films pornographiques pour payer ses études.
 Evelyne : une ourse polaire, amie de Peepoodo. Anciennement Kevin, elle deviendra Evelyne à la suite d'un changement de genre à la fin de la Saison 1.
 Grocosto : un buffle, ami de Peepoodo, a un tempérament de « beauf ».
 Le Vieux Bernard : une grenouille âgée, libraire
-Lilly : une éléphante, amie de Peepoodo
-Autres personnages
-Strubel : Cochon germanique, il est le correspondant de Peepoodo. Il aime la fête, particulièrement l'Oktoberfest, et est très attaché à une hygiène irréprochable. Il arrive dans la forêt jolie pour rendre visite à Peepoodo avec deux truies.
+Lilly : une éléphante, amie de Peepoodo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Peepoodo_and_the_Super_Fuck_Friends</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peepoodo_and_the_Super_Fuck_Friends</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres personnages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Strubel : Cochon germanique, il est le correspondant de Peepoodo. Il aime la fête, particulièrement l'Oktoberfest, et est très attaché à une hygiène irréprochable. Il arrive dans la forêt jolie pour rendre visite à Peepoodo avec deux truies.
 Oria : Truie germanique, une des faire-valoir du correspondant Strubel
 La sorcière : Louve ou Renarde, elle apparaît en train de se laver et donne une leçon à Peepoodo et ses amis pour leurs comportements inappropriés.
 Papidoux et Mamidoux: Hamster rose, ils sont les grands-parents de Peepoodo. Papidoux souffre d'impuissance. Mamidoux gâte sa famille avec des plats à base de pamplemousse.
@@ -569,31 +622,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Peepoodo_and_the_Super_Fuck_Friends</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Peepoodo_and_the_Super_Fuck_Friends</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Titre : Peepoodo and the Super Fuck Friends
 Création : Balak
@@ -614,34 +669,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Peepoodo_and_the_Super_Fuck_Friends</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Peepoodo_and_the_Super_Fuck_Friends</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Voix françaises
-Brigitte Lecordier : Peepoodo
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Brigitte Lecordier : Peepoodo
 Jeanne Chartier : Dr Monique Lachatte
 Balak : Kévin/Evelyne
 Brice Chevillard : Grocosto
@@ -649,34 +709,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Peepoodo_and_the_Super_Fuck_Friends</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Peepoodo_and_the_Super_Fuck_Friends</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Saison 1
-Les Légumes
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Légumes
 Le Basketball
 Le Correspondant Allemand
 La Sorcière
@@ -693,9 +758,43 @@
 Solitaire
 Sexo Dingo
 Peepoodur Partie 1
-Peepoodur Partie 2
-Saison 2
-0. Crownfunding
+Peepoodur Partie 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Peepoodo_and_the_Super_Fuck_Friends</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peepoodo_and_the_Super_Fuck_Friends</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Saison 2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0. Crownfunding
 Amaflix+
 Handjob's Tale
 Le Cinquième Passager
